--- a/sim02/GRADE/Sim02_GradingForm_450622.xlsx
+++ b/sim02/GRADE/Sim02_GradingForm_450622.xlsx
@@ -746,8 +746,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="11">
     <font>
@@ -901,7 +902,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -963,6 +964,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1065,9 +1074,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>827640</xdr:colOff>
+      <xdr:colOff>827280</xdr:colOff>
       <xdr:row>163</xdr:row>
-      <xdr:rowOff>147600</xdr:rowOff>
+      <xdr:rowOff>147240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1081,7 +1090,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7686720" y="31678200"/>
-          <a:ext cx="10721520" cy="3122640"/>
+          <a:ext cx="10721160" cy="3122280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1102,9 +1111,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>1016280</xdr:colOff>
+      <xdr:colOff>1015920</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>150840</xdr:rowOff>
+      <xdr:rowOff>150480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1118,7 +1127,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9595440" y="8249760"/>
-          <a:ext cx="7984080" cy="750960"/>
+          <a:ext cx="7983720" cy="750600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1139,9 +1148,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>160200</xdr:colOff>
+      <xdr:colOff>159840</xdr:colOff>
       <xdr:row>117</xdr:row>
-      <xdr:rowOff>64080</xdr:rowOff>
+      <xdr:rowOff>63720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1155,7 +1164,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10227600" y="21150720"/>
-          <a:ext cx="4039920" cy="4365360"/>
+          <a:ext cx="4039560" cy="4365000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1176,9 +1185,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>594720</xdr:colOff>
+      <xdr:colOff>594360</xdr:colOff>
       <xdr:row>115</xdr:row>
-      <xdr:rowOff>93960</xdr:rowOff>
+      <xdr:rowOff>93600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1192,7 +1201,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="14299920" y="21213720"/>
-          <a:ext cx="7944480" cy="3932280"/>
+          <a:ext cx="7944120" cy="3931920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1213,9 +1222,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>36</xdr:col>
-      <xdr:colOff>680040</xdr:colOff>
+      <xdr:colOff>679680</xdr:colOff>
       <xdr:row>118</xdr:row>
-      <xdr:rowOff>24120</xdr:rowOff>
+      <xdr:rowOff>23760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1229,7 +1238,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="22518000" y="18376560"/>
-          <a:ext cx="4898160" cy="7299720"/>
+          <a:ext cx="4897800" cy="7299360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1250,9 +1259,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>643680</xdr:colOff>
+      <xdr:colOff>643320</xdr:colOff>
       <xdr:row>147</xdr:row>
-      <xdr:rowOff>176760</xdr:rowOff>
+      <xdr:rowOff>176400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1266,7 +1275,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10239840" y="25980120"/>
-          <a:ext cx="3866400" cy="5649480"/>
+          <a:ext cx="3866040" cy="5649120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1287,9 +1296,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>344880</xdr:colOff>
+      <xdr:colOff>344520</xdr:colOff>
       <xdr:row>147</xdr:row>
-      <xdr:rowOff>125640</xdr:rowOff>
+      <xdr:rowOff>125280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1303,7 +1312,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="14149800" y="25952040"/>
-          <a:ext cx="4793040" cy="5626440"/>
+          <a:ext cx="4792680" cy="5626080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1324,9 +1333,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>664920</xdr:colOff>
+      <xdr:colOff>664560</xdr:colOff>
       <xdr:row>126</xdr:row>
-      <xdr:rowOff>189720</xdr:rowOff>
+      <xdr:rowOff>189360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1340,7 +1349,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="18995400" y="26014680"/>
-          <a:ext cx="3319200" cy="1427400"/>
+          <a:ext cx="3318840" cy="1427040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1361,9 +1370,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>231480</xdr:colOff>
+      <xdr:colOff>231120</xdr:colOff>
       <xdr:row>78</xdr:row>
-      <xdr:rowOff>7920</xdr:rowOff>
+      <xdr:rowOff>7560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1377,7 +1386,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10239840" y="15850800"/>
-          <a:ext cx="4712760" cy="1808280"/>
+          <a:ext cx="4712400" cy="1807920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1398,9 +1407,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>432720</xdr:colOff>
+      <xdr:colOff>432360</xdr:colOff>
       <xdr:row>78</xdr:row>
-      <xdr:rowOff>7920</xdr:rowOff>
+      <xdr:rowOff>7560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1414,7 +1423,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="15335280" y="15850800"/>
-          <a:ext cx="4712760" cy="1808280"/>
+          <a:ext cx="4712400" cy="1807920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1435,9 +1444,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
-      <xdr:colOff>126720</xdr:colOff>
+      <xdr:colOff>126360</xdr:colOff>
       <xdr:row>170</xdr:row>
-      <xdr:rowOff>191160</xdr:rowOff>
+      <xdr:rowOff>190800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1451,7 +1460,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="18924840" y="27376200"/>
-          <a:ext cx="9972360" cy="8868240"/>
+          <a:ext cx="9972000" cy="8867880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1472,9 +1481,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>127440</xdr:colOff>
+      <xdr:colOff>127080</xdr:colOff>
       <xdr:row>68</xdr:row>
-      <xdr:rowOff>41040</xdr:rowOff>
+      <xdr:rowOff>40680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1488,7 +1497,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10474920" y="11590920"/>
-          <a:ext cx="3759840" cy="4101120"/>
+          <a:ext cx="3759480" cy="4100760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1509,9 +1518,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>407880</xdr:colOff>
+      <xdr:colOff>407520</xdr:colOff>
       <xdr:row>89</xdr:row>
-      <xdr:rowOff>116640</xdr:rowOff>
+      <xdr:rowOff>116280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1525,7 +1534,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10286640" y="18168840"/>
-          <a:ext cx="5456520" cy="1799280"/>
+          <a:ext cx="5456160" cy="1798920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1546,9 +1555,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>560520</xdr:colOff>
+      <xdr:colOff>560160</xdr:colOff>
       <xdr:row>94</xdr:row>
-      <xdr:rowOff>104040</xdr:rowOff>
+      <xdr:rowOff>103680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1562,7 +1571,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="15949440" y="18251280"/>
-          <a:ext cx="4226400" cy="2704320"/>
+          <a:ext cx="4226040" cy="2703960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1584,8 +1593,8 @@
   </sheetPr>
   <dimension ref="A1:AD1001"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A127" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J161" activeCellId="0" sqref="J161"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A139" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="R177" activeCellId="0" sqref="R177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.43359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4518,18 +4527,18 @@
       <c r="B107" s="4"/>
       <c r="C107" s="4"/>
       <c r="D107" s="4"/>
-      <c r="E107" s="11" t="s">
+      <c r="E107" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="F107" s="11"/>
-      <c r="G107" s="11"/>
-      <c r="H107" s="11"/>
-      <c r="I107" s="11"/>
-      <c r="J107" s="11"/>
-      <c r="K107" s="11"/>
-      <c r="L107" s="11"/>
-      <c r="M107" s="11"/>
-      <c r="N107" s="11"/>
+      <c r="F107" s="16"/>
+      <c r="G107" s="16"/>
+      <c r="H107" s="16"/>
+      <c r="I107" s="16"/>
+      <c r="J107" s="16"/>
+      <c r="K107" s="16"/>
+      <c r="L107" s="16"/>
+      <c r="M107" s="16"/>
+      <c r="N107" s="16"/>
       <c r="O107" s="4"/>
       <c r="P107" s="4"/>
       <c r="Q107" s="4"/>
@@ -4544,18 +4553,18 @@
       <c r="B108" s="4"/>
       <c r="C108" s="4"/>
       <c r="D108" s="4"/>
-      <c r="E108" s="12" t="s">
+      <c r="E108" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="F108" s="12"/>
-      <c r="G108" s="12"/>
-      <c r="H108" s="12"/>
-      <c r="I108" s="12"/>
-      <c r="J108" s="12"/>
-      <c r="K108" s="12"/>
-      <c r="L108" s="12"/>
-      <c r="M108" s="12"/>
-      <c r="N108" s="12"/>
+      <c r="F108" s="17"/>
+      <c r="G108" s="17"/>
+      <c r="H108" s="17"/>
+      <c r="I108" s="17"/>
+      <c r="J108" s="17"/>
+      <c r="K108" s="17"/>
+      <c r="L108" s="17"/>
+      <c r="M108" s="17"/>
+      <c r="N108" s="17"/>
       <c r="O108" s="4"/>
       <c r="P108" s="4"/>
       <c r="Q108" s="4"/>
@@ -4570,18 +4579,18 @@
       <c r="B109" s="4"/>
       <c r="C109" s="4"/>
       <c r="D109" s="4"/>
-      <c r="E109" s="12" t="s">
+      <c r="E109" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="F109" s="12"/>
-      <c r="G109" s="12"/>
-      <c r="H109" s="12"/>
-      <c r="I109" s="12"/>
-      <c r="J109" s="12"/>
-      <c r="K109" s="12"/>
-      <c r="L109" s="12"/>
-      <c r="M109" s="12"/>
-      <c r="N109" s="12"/>
+      <c r="F109" s="17"/>
+      <c r="G109" s="17"/>
+      <c r="H109" s="17"/>
+      <c r="I109" s="17"/>
+      <c r="J109" s="17"/>
+      <c r="K109" s="17"/>
+      <c r="L109" s="17"/>
+      <c r="M109" s="17"/>
+      <c r="N109" s="17"/>
       <c r="O109" s="4"/>
       <c r="P109" s="4"/>
       <c r="Q109" s="4"/>
@@ -5181,10 +5190,10 @@
       <c r="T131" s="4"/>
       <c r="U131" s="4"/>
       <c r="V131" s="4"/>
-      <c r="W131" s="16"/>
-      <c r="X131" s="16"/>
-      <c r="Y131" s="16"/>
-      <c r="Z131" s="16"/>
+      <c r="W131" s="18"/>
+      <c r="X131" s="18"/>
+      <c r="Y131" s="18"/>
+      <c r="Z131" s="18"/>
     </row>
     <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A132" s="4"/>
@@ -5215,10 +5224,10 @@
       <c r="T132" s="4"/>
       <c r="U132" s="4"/>
       <c r="V132" s="4"/>
-      <c r="W132" s="16"/>
-      <c r="X132" s="16"/>
-      <c r="Y132" s="16"/>
-      <c r="Z132" s="16"/>
+      <c r="W132" s="18"/>
+      <c r="X132" s="18"/>
+      <c r="Y132" s="18"/>
+      <c r="Z132" s="18"/>
     </row>
     <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A133" s="4"/>
@@ -5249,10 +5258,10 @@
       <c r="T133" s="4"/>
       <c r="U133" s="4"/>
       <c r="V133" s="4"/>
-      <c r="W133" s="16"/>
-      <c r="X133" s="16"/>
-      <c r="Y133" s="16"/>
-      <c r="Z133" s="16"/>
+      <c r="W133" s="18"/>
+      <c r="X133" s="18"/>
+      <c r="Y133" s="18"/>
+      <c r="Z133" s="18"/>
     </row>
     <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A134" s="4"/>
@@ -5283,10 +5292,10 @@
       <c r="T134" s="4"/>
       <c r="U134" s="4"/>
       <c r="V134" s="4"/>
-      <c r="W134" s="16"/>
-      <c r="X134" s="16"/>
-      <c r="Y134" s="16"/>
-      <c r="Z134" s="16"/>
+      <c r="W134" s="18"/>
+      <c r="X134" s="18"/>
+      <c r="Y134" s="18"/>
+      <c r="Z134" s="18"/>
     </row>
     <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A135" s="4"/>
@@ -5317,10 +5326,10 @@
       <c r="T135" s="4"/>
       <c r="U135" s="4"/>
       <c r="V135" s="4"/>
-      <c r="W135" s="16"/>
-      <c r="X135" s="16"/>
-      <c r="Y135" s="16"/>
-      <c r="Z135" s="16"/>
+      <c r="W135" s="18"/>
+      <c r="X135" s="18"/>
+      <c r="Y135" s="18"/>
+      <c r="Z135" s="18"/>
     </row>
     <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A136" s="4"/>
@@ -5351,10 +5360,10 @@
       <c r="T136" s="4"/>
       <c r="U136" s="4"/>
       <c r="V136" s="4"/>
-      <c r="W136" s="16"/>
-      <c r="X136" s="16"/>
-      <c r="Y136" s="16"/>
-      <c r="Z136" s="16"/>
+      <c r="W136" s="18"/>
+      <c r="X136" s="18"/>
+      <c r="Y136" s="18"/>
+      <c r="Z136" s="18"/>
     </row>
     <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A137" s="4"/>
@@ -5385,10 +5394,10 @@
       <c r="T137" s="4"/>
       <c r="U137" s="4"/>
       <c r="V137" s="4"/>
-      <c r="W137" s="16"/>
-      <c r="X137" s="16"/>
-      <c r="Y137" s="16"/>
-      <c r="Z137" s="16"/>
+      <c r="W137" s="18"/>
+      <c r="X137" s="18"/>
+      <c r="Y137" s="18"/>
+      <c r="Z137" s="18"/>
     </row>
     <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A138" s="4"/>
@@ -5419,10 +5428,10 @@
       <c r="T138" s="4"/>
       <c r="U138" s="4"/>
       <c r="V138" s="4"/>
-      <c r="W138" s="16"/>
-      <c r="X138" s="16"/>
-      <c r="Y138" s="16"/>
-      <c r="Z138" s="16"/>
+      <c r="W138" s="18"/>
+      <c r="X138" s="18"/>
+      <c r="Y138" s="18"/>
+      <c r="Z138" s="18"/>
     </row>
     <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A139" s="4"/>
@@ -5453,10 +5462,10 @@
       <c r="T139" s="4"/>
       <c r="U139" s="4"/>
       <c r="V139" s="4"/>
-      <c r="W139" s="16"/>
-      <c r="X139" s="16"/>
-      <c r="Y139" s="16"/>
-      <c r="Z139" s="16"/>
+      <c r="W139" s="18"/>
+      <c r="X139" s="18"/>
+      <c r="Y139" s="18"/>
+      <c r="Z139" s="18"/>
     </row>
     <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A140" s="4"/>
@@ -5487,10 +5496,10 @@
       <c r="T140" s="4"/>
       <c r="U140" s="4"/>
       <c r="V140" s="4"/>
-      <c r="W140" s="16"/>
-      <c r="X140" s="16"/>
-      <c r="Y140" s="16"/>
-      <c r="Z140" s="16"/>
+      <c r="W140" s="18"/>
+      <c r="X140" s="18"/>
+      <c r="Y140" s="18"/>
+      <c r="Z140" s="18"/>
     </row>
     <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A141" s="4"/>
@@ -5521,10 +5530,10 @@
       <c r="T141" s="4"/>
       <c r="U141" s="4"/>
       <c r="V141" s="4"/>
-      <c r="W141" s="16"/>
-      <c r="X141" s="16"/>
-      <c r="Y141" s="16"/>
-      <c r="Z141" s="16"/>
+      <c r="W141" s="18"/>
+      <c r="X141" s="18"/>
+      <c r="Y141" s="18"/>
+      <c r="Z141" s="18"/>
     </row>
     <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A142" s="4"/>
@@ -5555,10 +5564,10 @@
       <c r="T142" s="4"/>
       <c r="U142" s="4"/>
       <c r="V142" s="4"/>
-      <c r="W142" s="16"/>
-      <c r="X142" s="16"/>
-      <c r="Y142" s="16"/>
-      <c r="Z142" s="16"/>
+      <c r="W142" s="18"/>
+      <c r="X142" s="18"/>
+      <c r="Y142" s="18"/>
+      <c r="Z142" s="18"/>
     </row>
     <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A143" s="4"/>
@@ -5589,10 +5598,10 @@
       <c r="T143" s="4"/>
       <c r="U143" s="4"/>
       <c r="V143" s="4"/>
-      <c r="W143" s="16"/>
-      <c r="X143" s="16"/>
-      <c r="Y143" s="16"/>
-      <c r="Z143" s="16"/>
+      <c r="W143" s="18"/>
+      <c r="X143" s="18"/>
+      <c r="Y143" s="18"/>
+      <c r="Z143" s="18"/>
     </row>
     <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A144" s="4"/>
@@ -5623,10 +5632,10 @@
       <c r="T144" s="4"/>
       <c r="U144" s="4"/>
       <c r="V144" s="4"/>
-      <c r="W144" s="16"/>
-      <c r="X144" s="16"/>
-      <c r="Y144" s="16"/>
-      <c r="Z144" s="16"/>
+      <c r="W144" s="18"/>
+      <c r="X144" s="18"/>
+      <c r="Y144" s="18"/>
+      <c r="Z144" s="18"/>
     </row>
     <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A145" s="4"/>
@@ -5657,10 +5666,10 @@
       <c r="T145" s="4"/>
       <c r="U145" s="4"/>
       <c r="V145" s="4"/>
-      <c r="W145" s="16"/>
-      <c r="X145" s="16"/>
-      <c r="Y145" s="16"/>
-      <c r="Z145" s="16"/>
+      <c r="W145" s="18"/>
+      <c r="X145" s="18"/>
+      <c r="Y145" s="18"/>
+      <c r="Z145" s="18"/>
     </row>
     <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A146" s="4"/>
@@ -5691,10 +5700,10 @@
       <c r="T146" s="4"/>
       <c r="U146" s="4"/>
       <c r="V146" s="4"/>
-      <c r="W146" s="16"/>
-      <c r="X146" s="16"/>
-      <c r="Y146" s="16"/>
-      <c r="Z146" s="16"/>
+      <c r="W146" s="18"/>
+      <c r="X146" s="18"/>
+      <c r="Y146" s="18"/>
+      <c r="Z146" s="18"/>
     </row>
     <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A147" s="4"/>
@@ -5725,10 +5734,10 @@
       <c r="T147" s="4"/>
       <c r="U147" s="4"/>
       <c r="V147" s="4"/>
-      <c r="W147" s="16"/>
-      <c r="X147" s="16"/>
-      <c r="Y147" s="16"/>
-      <c r="Z147" s="16"/>
+      <c r="W147" s="18"/>
+      <c r="X147" s="18"/>
+      <c r="Y147" s="18"/>
+      <c r="Z147" s="18"/>
     </row>
     <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A148" s="4"/>
@@ -5759,10 +5768,10 @@
       <c r="T148" s="4"/>
       <c r="U148" s="4"/>
       <c r="V148" s="4"/>
-      <c r="W148" s="16"/>
-      <c r="X148" s="16"/>
-      <c r="Y148" s="16"/>
-      <c r="Z148" s="16"/>
+      <c r="W148" s="18"/>
+      <c r="X148" s="18"/>
+      <c r="Y148" s="18"/>
+      <c r="Z148" s="18"/>
     </row>
     <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A149" s="4"/>
@@ -5793,10 +5802,10 @@
       <c r="T149" s="4"/>
       <c r="U149" s="4"/>
       <c r="V149" s="4"/>
-      <c r="W149" s="16"/>
-      <c r="X149" s="16"/>
-      <c r="Y149" s="16"/>
-      <c r="Z149" s="16"/>
+      <c r="W149" s="18"/>
+      <c r="X149" s="18"/>
+      <c r="Y149" s="18"/>
+      <c r="Z149" s="18"/>
     </row>
     <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A150" s="4"/>
@@ -6096,7 +6105,7 @@
       <c r="C161" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="D161" s="17" t="s">
+      <c r="D161" s="19" t="s">
         <v>130</v>
       </c>
       <c r="E161" s="4" t="s">
@@ -6119,10 +6128,10 @@
       <c r="T161" s="4"/>
       <c r="U161" s="4"/>
       <c r="V161" s="4"/>
-      <c r="W161" s="16"/>
-      <c r="X161" s="16"/>
-      <c r="Y161" s="16"/>
-      <c r="Z161" s="16"/>
+      <c r="W161" s="18"/>
+      <c r="X161" s="18"/>
+      <c r="Y161" s="18"/>
+      <c r="Z161" s="18"/>
     </row>
     <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A162" s="4"/>
@@ -6130,7 +6139,7 @@
       <c r="C162" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="D162" s="17" t="s">
+      <c r="D162" s="19" t="s">
         <v>130</v>
       </c>
       <c r="E162" s="4" t="s">
@@ -6153,10 +6162,10 @@
       <c r="T162" s="4"/>
       <c r="U162" s="4"/>
       <c r="V162" s="4"/>
-      <c r="W162" s="16"/>
-      <c r="X162" s="16"/>
-      <c r="Y162" s="16"/>
-      <c r="Z162" s="16"/>
+      <c r="W162" s="18"/>
+      <c r="X162" s="18"/>
+      <c r="Y162" s="18"/>
+      <c r="Z162" s="18"/>
     </row>
     <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A163" s="4"/>
@@ -6164,7 +6173,7 @@
       <c r="C163" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="D163" s="17" t="s">
+      <c r="D163" s="19" t="s">
         <v>130</v>
       </c>
       <c r="E163" s="4" t="s">
@@ -6179,7 +6188,7 @@
       <c r="L163" s="4"/>
       <c r="M163" s="4"/>
       <c r="N163" s="4"/>
-      <c r="O163" s="16"/>
+      <c r="O163" s="18"/>
       <c r="P163" s="4"/>
       <c r="Q163" s="4"/>
       <c r="R163" s="4"/>
@@ -6187,10 +6196,10 @@
       <c r="T163" s="4"/>
       <c r="U163" s="4"/>
       <c r="V163" s="4"/>
-      <c r="W163" s="16"/>
-      <c r="X163" s="16"/>
-      <c r="Y163" s="16"/>
-      <c r="Z163" s="16"/>
+      <c r="W163" s="18"/>
+      <c r="X163" s="18"/>
+      <c r="Y163" s="18"/>
+      <c r="Z163" s="18"/>
     </row>
     <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A164" s="4"/>
@@ -6198,7 +6207,7 @@
       <c r="C164" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="D164" s="17" t="s">
+      <c r="D164" s="19" t="s">
         <v>130</v>
       </c>
       <c r="E164" s="4" t="s">
@@ -6221,10 +6230,10 @@
       <c r="T164" s="4"/>
       <c r="U164" s="4"/>
       <c r="V164" s="4"/>
-      <c r="W164" s="16"/>
-      <c r="X164" s="16"/>
-      <c r="Y164" s="16"/>
-      <c r="Z164" s="16"/>
+      <c r="W164" s="18"/>
+      <c r="X164" s="18"/>
+      <c r="Y164" s="18"/>
+      <c r="Z164" s="18"/>
     </row>
     <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A165" s="4"/>
@@ -6232,7 +6241,7 @@
       <c r="C165" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="D165" s="17" t="s">
+      <c r="D165" s="19" t="s">
         <v>130</v>
       </c>
       <c r="E165" s="4" t="s">
@@ -6255,10 +6264,10 @@
       <c r="T165" s="4"/>
       <c r="U165" s="4"/>
       <c r="V165" s="4"/>
-      <c r="W165" s="16"/>
-      <c r="X165" s="16"/>
-      <c r="Y165" s="16"/>
-      <c r="Z165" s="16"/>
+      <c r="W165" s="18"/>
+      <c r="X165" s="18"/>
+      <c r="Y165" s="18"/>
+      <c r="Z165" s="18"/>
     </row>
     <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A166" s="4"/>
@@ -6266,7 +6275,7 @@
       <c r="C166" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="D166" s="17" t="s">
+      <c r="D166" s="19" t="s">
         <v>130</v>
       </c>
       <c r="E166" s="4" t="s">
@@ -6289,10 +6298,10 @@
       <c r="T166" s="4"/>
       <c r="U166" s="4"/>
       <c r="V166" s="4"/>
-      <c r="W166" s="16"/>
-      <c r="X166" s="16"/>
-      <c r="Y166" s="16"/>
-      <c r="Z166" s="16"/>
+      <c r="W166" s="18"/>
+      <c r="X166" s="18"/>
+      <c r="Y166" s="18"/>
+      <c r="Z166" s="18"/>
     </row>
     <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A167" s="4"/>
@@ -6300,7 +6309,7 @@
       <c r="C167" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="D167" s="17" t="s">
+      <c r="D167" s="19" t="s">
         <v>130</v>
       </c>
       <c r="E167" s="4" t="s">
@@ -6323,10 +6332,10 @@
       <c r="T167" s="4"/>
       <c r="U167" s="4"/>
       <c r="V167" s="4"/>
-      <c r="W167" s="16"/>
-      <c r="X167" s="16"/>
-      <c r="Y167" s="16"/>
-      <c r="Z167" s="16"/>
+      <c r="W167" s="18"/>
+      <c r="X167" s="18"/>
+      <c r="Y167" s="18"/>
+      <c r="Z167" s="18"/>
     </row>
     <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A168" s="4"/>
@@ -6384,10 +6393,10 @@
       <c r="T169" s="4"/>
       <c r="U169" s="4"/>
       <c r="V169" s="4"/>
-      <c r="W169" s="16"/>
-      <c r="X169" s="16"/>
-      <c r="Y169" s="16"/>
-      <c r="Z169" s="16"/>
+      <c r="W169" s="18"/>
+      <c r="X169" s="18"/>
+      <c r="Y169" s="18"/>
+      <c r="Z169" s="18"/>
     </row>
     <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A170" s="4"/>
@@ -6414,10 +6423,10 @@
       <c r="T170" s="4"/>
       <c r="U170" s="4"/>
       <c r="V170" s="4"/>
-      <c r="W170" s="16"/>
-      <c r="X170" s="16"/>
-      <c r="Y170" s="16"/>
-      <c r="Z170" s="16"/>
+      <c r="W170" s="18"/>
+      <c r="X170" s="18"/>
+      <c r="Y170" s="18"/>
+      <c r="Z170" s="18"/>
     </row>
     <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A171" s="4"/>
@@ -6444,10 +6453,10 @@
       <c r="T171" s="4"/>
       <c r="U171" s="4"/>
       <c r="V171" s="4"/>
-      <c r="W171" s="16"/>
-      <c r="X171" s="16"/>
-      <c r="Y171" s="16"/>
-      <c r="Z171" s="16"/>
+      <c r="W171" s="18"/>
+      <c r="X171" s="18"/>
+      <c r="Y171" s="18"/>
+      <c r="Z171" s="18"/>
     </row>
     <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A172" s="4"/>
@@ -6474,10 +6483,10 @@
       <c r="T172" s="4"/>
       <c r="U172" s="4"/>
       <c r="V172" s="4"/>
-      <c r="W172" s="16"/>
-      <c r="X172" s="16"/>
-      <c r="Y172" s="16"/>
-      <c r="Z172" s="16"/>
+      <c r="W172" s="18"/>
+      <c r="X172" s="18"/>
+      <c r="Y172" s="18"/>
+      <c r="Z172" s="18"/>
       <c r="AD172" s="1" t="s">
         <v>142</v>
       </c>
@@ -6507,22 +6516,22 @@
       <c r="V173" s="4"/>
     </row>
     <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A174" s="18"/>
-      <c r="B174" s="19" t="s">
+      <c r="A174" s="20"/>
+      <c r="B174" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="C174" s="18"/>
-      <c r="D174" s="18"/>
-      <c r="E174" s="18"/>
-      <c r="F174" s="18"/>
-      <c r="G174" s="18"/>
-      <c r="H174" s="18"/>
-      <c r="I174" s="18"/>
-      <c r="J174" s="18"/>
-      <c r="K174" s="18"/>
-      <c r="L174" s="18"/>
-      <c r="M174" s="18"/>
-      <c r="N174" s="18"/>
+      <c r="C174" s="20"/>
+      <c r="D174" s="20"/>
+      <c r="E174" s="20"/>
+      <c r="F174" s="20"/>
+      <c r="G174" s="20"/>
+      <c r="H174" s="20"/>
+      <c r="I174" s="20"/>
+      <c r="J174" s="20"/>
+      <c r="K174" s="20"/>
+      <c r="L174" s="20"/>
+      <c r="M174" s="20"/>
+      <c r="N174" s="20"/>
       <c r="O174" s="4"/>
       <c r="P174" s="4"/>
       <c r="Q174" s="4"/>
@@ -6568,7 +6577,7 @@
         <f aca="false">C31+C45+C63+C75+C91+C105+C120+C150+C156+C168</f>
         <v>146</v>
       </c>
-      <c r="G176" s="17" t="s">
+      <c r="G176" s="19" t="s">
         <v>145</v>
       </c>
       <c r="H176" s="4" t="n">
@@ -6602,7 +6611,7 @@
         <f aca="false">CEILING(F176*H177/H176,1)</f>
         <v>98</v>
       </c>
-      <c r="G177" s="17" t="s">
+      <c r="G177" s="19" t="s">
         <v>145</v>
       </c>
       <c r="H177" s="4" t="n">
@@ -6726,10 +6735,10 @@
       <c r="T181" s="4"/>
       <c r="U181" s="4"/>
       <c r="V181" s="4"/>
-      <c r="W181" s="16"/>
-      <c r="X181" s="16"/>
-      <c r="Y181" s="16"/>
-      <c r="Z181" s="16"/>
+      <c r="W181" s="18"/>
+      <c r="X181" s="18"/>
+      <c r="Y181" s="18"/>
+      <c r="Z181" s="18"/>
     </row>
     <row r="182" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A182" s="4"/>
@@ -6754,10 +6763,10 @@
       <c r="T182" s="4"/>
       <c r="U182" s="4"/>
       <c r="V182" s="4"/>
-      <c r="W182" s="16"/>
-      <c r="X182" s="16"/>
-      <c r="Y182" s="16"/>
-      <c r="Z182" s="16"/>
+      <c r="W182" s="18"/>
+      <c r="X182" s="18"/>
+      <c r="Y182" s="18"/>
+      <c r="Z182" s="18"/>
     </row>
     <row r="183" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A183" s="4"/>
@@ -6782,10 +6791,10 @@
       <c r="T183" s="4"/>
       <c r="U183" s="4"/>
       <c r="V183" s="4"/>
-      <c r="W183" s="16"/>
-      <c r="X183" s="16"/>
-      <c r="Y183" s="16"/>
-      <c r="Z183" s="16"/>
+      <c r="W183" s="18"/>
+      <c r="X183" s="18"/>
+      <c r="Y183" s="18"/>
+      <c r="Z183" s="18"/>
     </row>
     <row r="184" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A184" s="4"/>
@@ -6810,10 +6819,10 @@
       <c r="T184" s="4"/>
       <c r="U184" s="4"/>
       <c r="V184" s="4"/>
-      <c r="W184" s="16"/>
-      <c r="X184" s="16"/>
-      <c r="Y184" s="16"/>
-      <c r="Z184" s="16"/>
+      <c r="W184" s="18"/>
+      <c r="X184" s="18"/>
+      <c r="Y184" s="18"/>
+      <c r="Z184" s="18"/>
     </row>
     <row r="185" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A185" s="4"/>
@@ -6877,7 +6886,7 @@
         <f aca="false">CEILING(A187*(C179+F177),1)</f>
         <v>98</v>
       </c>
-      <c r="G187" s="17" t="s">
+      <c r="G187" s="19" t="s">
         <v>145</v>
       </c>
       <c r="H187" s="4" t="n">
